--- a/Unity/Assets/Config/Excel/EquipQiangHuaConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EquipQiangHuaConfig.xlsx
@@ -1,1165 +1,164 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05602E83-511F-4F2F-B7C3-AB8BE85ACB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="EquipQiangHuaProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">10.生命值
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">11.物理攻击       
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">14.魔法攻击
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">17.物理防御        
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">20.魔法防御
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">30.暴击
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">31.命中
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">32.闪避
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">33.物理免伤
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">34.魔法免伤
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">35.移动速度
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">36.伤害减免
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">50:血量百分比
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">51：物攻百分比
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">52：魔攻百分比
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">53：物防百分比
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">54：魔防百分比
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">101：格挡值
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">111：重击概率
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">112:  重击附加伤害值
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">121:  每次普通攻击附加的伤害值
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">131:  忽视目标防御值   
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">132:  忽视目标魔防值
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">133:  忽视目标百分比防御值
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">134:  忽视目标百分比魔防值
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">141:  吸血概率
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">151:  法术反击
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">152:  攻击反击
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">161：韧性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">201：初始暴击等级
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">202：初始韧性等级
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">203：初始命中等级
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">204：初始闪避等级
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">301:光抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">302:暗抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">303:火抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">304:水抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">305:电抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">321：//野兽攻击抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">322：//人物攻击抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">323：//恶魔攻击抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">401：//经验加成
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">402：//金币加成
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">403：//洗炼极品掉落
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">404：//隐藏属性出现概率
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t>405：//装备上的宝石槽位出现概率</t>
+          <t>作者:
+10.生命值
+11.物理攻击       
+14.魔法攻击
+17.物理防御        
+20.魔法防御
+30.暴击
+31.命中
+32.闪避
+33.物理免伤
+34.魔法免伤
+35.移动速度
+36.伤害减免
+50:血量百分比
+51：物攻百分比
+52：魔攻百分比
+53：物防百分比
+54：魔防百分比
+101：格挡值
+111：重击概率
+112:  重击附加伤害值
+121:  每次普通攻击附加的伤害值
+131:  忽视目标防御值   
+132:  忽视目标魔防值
+133:  忽视目标百分比防御值
+134:  忽视目标百分比魔防值
+141:  吸血概率
+151:  法术反击
+152:  攻击反击
+161：韧性
+201：初始暴击等级
+202：初始韧性等级
+203：初始命中等级
+204：初始闪避等级
+301:光抗性
+302:暗抗性
+303:火抗性
+304:水抗性
+305:电抗性
+321：//野兽攻击抗性
+322：//人物攻击抗性
+323：//恶魔攻击抗性
+401：//经验加成
+402：//金币加成
+403：//洗炼极品掉落
+404：//隐藏属性出现概率
+405：//装备上的宝石槽位出现概率</t>
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">属性类型，属性值     ;号间隔多个属性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">10.生命值
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">11.物理攻击       
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">14.魔法攻击
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">17.物理防御        
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">20.魔法防御
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">30.暴击
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">31.命中
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">32.闪避
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">33.物理免伤
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">34.魔法免伤
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">35.移动速度
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">36.伤害减免
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">50:血量百分比
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">51：物攻百分比
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">52：魔攻百分比
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">53：物防百分比
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">54：魔防百分比
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">101：格挡值
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">111：重击概率
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">112:  重击附加伤害值
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">121:  每次普通攻击附加的伤害值
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">131:  忽视目标防御值   
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">132:  忽视目标魔防值
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">133:  忽视目标百分比防御值
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">134:  忽视目标百分比魔防值
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">141:  吸血概率
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">151:  法术反击
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">152:  攻击反击
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">161：韧性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">201：初始暴击等级
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">202：初始韧性等级
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">203：初始命中等级
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">204：初始闪避等级
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">301:光抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">302:暗抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">303:火抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">304:水抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">305:电抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">321：//野兽攻击抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">322：//人物攻击抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">323：//恶魔攻击抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">401：//经验加成
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">402：//金币加成
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">403：//洗炼极品掉落
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">404：//隐藏属性出现概率
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t>405：//装备上的宝石槽位出现概率</t>
+          <t>作者:
+属性类型，属性值     ;号间隔多个属性
+10.生命值
+11.物理攻击       
+14.魔法攻击
+17.物理防御        
+20.魔法防御
+30.暴击
+31.命中
+32.闪避
+33.物理免伤
+34.魔法免伤
+35.移动速度
+36.伤害减免
+50:血量百分比
+51：物攻百分比
+52：魔攻百分比
+53：物防百分比
+54：魔防百分比
+101：格挡值
+111：重击概率
+112:  重击附加伤害值
+121:  每次普通攻击附加的伤害值
+131:  忽视目标防御值   
+132:  忽视目标魔防值
+133:  忽视目标百分比防御值
+134:  忽视目标百分比魔防值
+141:  吸血概率
+151:  法术反击
+152:  攻击反击
+161：韧性
+201：初始暴击等级
+202：初始韧性等级
+203：初始命中等级
+204：初始闪避等级
+301:光抗性
+302:暗抗性
+303:火抗性
+304:水抗性
+305:电抗性
+321：//野兽攻击抗性
+322：//人物攻击抗性
+323：//恶魔攻击抗性
+401：//经验加成
+402：//金币加成
+403：//洗炼极品掉落
+404：//隐藏属性出现概率
+405：//装备上的宝石槽位出现概率</t>
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="M3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -1168,131 +167,30 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">//1 武器
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">        //2 衣服
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">        //3 护符
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">        //4 戒指
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">        //5 饰品
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">        //6 鞋子
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">        //7 裤子
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">        //8 腰带
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">        //9 手镯
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">        //10 头盔
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">        //11 项链</t>
+//1 武器
+        //2 衣服
+        //3 护符
+        //4 戒指
+        //5 饰品
+        //6 鞋子
+        //7 裤子
+        //8 腰带
+        //9 手镯
+        //10 头盔
+        //11 项链</t>
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="N3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -1301,120 +199,20 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">//1 武器
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">        //2 衣服
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">        //3 护符
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">        //4 戒指
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">        //5 饰品
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">        //6 鞋子
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">        //7 裤子
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">        //8 腰带
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">        //9 手镯
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">        //10 头盔
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">        //11 项链</t>
+//1 武器
+        //2 衣服
+        //3 护符
+        //4 戒指
+        //5 饰品
+        //6 鞋子
+        //7 裤子
+        //8 腰带
+        //9 手镯
+        //10 头盔
+        //11 项链</t>
         </r>
       </text>
     </comment>
@@ -1503,34 +301,34 @@
     <t>double</t>
   </si>
   <si>
-    <t>10010085;150</t>
+    <t>1000019;150</t>
   </si>
   <si>
-    <t>10010085;225</t>
+    <t>1000019;225</t>
   </si>
   <si>
-    <t>10010085;300</t>
+    <t>1000019;300</t>
   </si>
   <si>
-    <t>10010085;375</t>
+    <t>1000019;375</t>
   </si>
   <si>
-    <t>10010085;450</t>
+    <t>1000019;450</t>
   </si>
   <si>
-    <t>10010085;600</t>
+    <t>1000019;600</t>
   </si>
   <si>
-    <t>10010085;750</t>
+    <t>1000019;750</t>
   </si>
   <si>
-    <t>10010085;900</t>
+    <t>1000019;900</t>
   </si>
   <si>
-    <t>10010085;1200</t>
+    <t>1000019;1200</t>
   </si>
   <si>
-    <t>10010085;1500</t>
+    <t>1000019;1500</t>
   </si>
   <si>
     <t>400000</t>
@@ -1539,22 +337,22 @@
     <t>500000</t>
   </si>
   <si>
-    <t>10010085;2000</t>
+    <t>1000019;2000</t>
   </si>
   <si>
-    <t>10010085;3000</t>
+    <t>1000019;3000</t>
   </si>
   <si>
     <t>衣服部位</t>
   </si>
   <si>
-    <t>10010085;75</t>
+    <t>1000019;75</t>
   </si>
   <si>
-    <t>10010085;115</t>
+    <t>1000019;115</t>
   </si>
   <si>
-    <t>10010085;190</t>
+    <t>1000019;190</t>
   </si>
   <si>
     <t>200000</t>
@@ -1563,37 +361,37 @@
     <t>250000</t>
   </si>
   <si>
-    <t>10010085;1000</t>
+    <t>1000019;1000</t>
   </si>
   <si>
     <t>护符部位</t>
   </si>
   <si>
-    <t>10010085;60</t>
+    <t>1000019;60</t>
   </si>
   <si>
-    <t>10010085;90</t>
+    <t>1000019;90</t>
   </si>
   <si>
-    <t>10010085;120</t>
+    <t>1000019;120</t>
   </si>
   <si>
-    <t>10010085;180</t>
+    <t>1000019;180</t>
   </si>
   <si>
-    <t>10010085;240</t>
+    <t>1000019;240</t>
   </si>
   <si>
-    <t>10010085;360</t>
+    <t>1000019;360</t>
   </si>
   <si>
-    <t>10010085;480</t>
+    <t>1000019;480</t>
   </si>
   <si>
     <t>150000</t>
   </si>
   <si>
-    <t>10010085;800</t>
+    <t>1000019;800</t>
   </si>
   <si>
     <t>戒指部位</t>
@@ -1605,40 +403,40 @@
     <t>饰品部位</t>
   </si>
   <si>
-    <t>10010085;30</t>
+    <t>1000019;30</t>
   </si>
   <si>
-    <t>10010085;40</t>
+    <t>1000019;40</t>
   </si>
   <si>
-    <t>10010085;50</t>
+    <t>1000019;50</t>
   </si>
   <si>
-    <t>10010085;80</t>
+    <t>1000019;80</t>
   </si>
   <si>
-    <t>10010085;100</t>
+    <t>1000019;100</t>
   </si>
   <si>
-    <t>10010085;130</t>
+    <t>1000019;130</t>
   </si>
   <si>
-    <t>10010085;200</t>
+    <t>1000019;200</t>
   </si>
   <si>
-    <t>10010085;250</t>
+    <t>1000019;250</t>
   </si>
   <si>
     <t>220000</t>
   </si>
   <si>
-    <t>10010085;400</t>
+    <t>1000019;400</t>
   </si>
   <si>
     <t>鞋子部位</t>
   </si>
   <si>
-    <t>10010085;500</t>
+    <t>1000019;500</t>
   </si>
   <si>
     <t>50000</t>
@@ -1668,8 +466,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1680,21 +484,18 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1702,37 +503,184 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1763,8 +711,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1869,9 +1003,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1921,10 +1297,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -1997,9 +1420,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3070,16 +2490,16 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C1:IF174"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80:C89"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3093,13 +2513,13 @@
     <col min="15" max="240" width="8.875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:240" s="1" customFormat="1" ht="14.25"/>
-    <row r="2" spans="3:240" ht="13.5" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="14.25"/>
+    <row r="2" customHeight="1" spans="4:4">
       <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="3" ht="20.1" customHeight="1" spans="3:14">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
@@ -3137,7 +2557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="4" ht="20.1" customHeight="1" spans="3:14">
       <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
@@ -3175,7 +2595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="3:240" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="5" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C5" s="6" t="s">
         <v>23</v>
       </c>
@@ -3213,7 +2633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="6" ht="20.1" customHeight="1" spans="3:14">
       <c r="C6" s="9">
         <v>10100</v>
       </c>
@@ -3251,7 +2671,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="7" ht="20.1" customHeight="1" spans="3:14">
       <c r="C7" s="9">
         <v>10101</v>
       </c>
@@ -3289,7 +2709,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="8" ht="20.1" customHeight="1" spans="3:240">
       <c r="C8" s="9">
         <v>10102</v>
       </c>
@@ -3328,7 +2748,7 @@
       </c>
       <c r="IF8"/>
     </row>
-    <row r="9" spans="3:240" ht="19.5" customHeight="1">
+    <row r="9" ht="19.5" customHeight="1" spans="3:240">
       <c r="C9" s="9">
         <v>10103</v>
       </c>
@@ -3367,7 +2787,7 @@
       </c>
       <c r="IF9"/>
     </row>
-    <row r="10" spans="3:240" ht="19.5" customHeight="1">
+    <row r="10" ht="19.5" customHeight="1" spans="3:240">
       <c r="C10" s="9">
         <v>10104</v>
       </c>
@@ -3406,7 +2826,7 @@
       </c>
       <c r="IF10"/>
     </row>
-    <row r="11" spans="3:240" ht="19.5" customHeight="1">
+    <row r="11" ht="19.5" customHeight="1" spans="3:240">
       <c r="C11" s="9">
         <v>10105</v>
       </c>
@@ -3445,7 +2865,7 @@
       </c>
       <c r="IF11"/>
     </row>
-    <row r="12" spans="3:240" ht="19.5" customHeight="1">
+    <row r="12" ht="19.5" customHeight="1" spans="3:240">
       <c r="C12" s="9">
         <v>10106</v>
       </c>
@@ -3484,7 +2904,7 @@
       </c>
       <c r="IF12"/>
     </row>
-    <row r="13" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="13" ht="20.1" customHeight="1" spans="3:240">
       <c r="C13" s="9">
         <v>10107</v>
       </c>
@@ -3523,7 +2943,7 @@
       </c>
       <c r="IF13"/>
     </row>
-    <row r="14" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="14" ht="20.1" customHeight="1" spans="3:240">
       <c r="C14" s="9">
         <v>10108</v>
       </c>
@@ -3549,7 +2969,7 @@
         <v>34</v>
       </c>
       <c r="K14" s="11">
-        <v>0.17499999999999999</v>
+        <v>0.175</v>
       </c>
       <c r="L14" s="11">
         <v>0</v>
@@ -3562,7 +2982,7 @@
       </c>
       <c r="IF14"/>
     </row>
-    <row r="15" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="15" ht="20.1" customHeight="1" spans="3:240">
       <c r="C15" s="9">
         <v>10109</v>
       </c>
@@ -3601,7 +3021,7 @@
       </c>
       <c r="IF15"/>
     </row>
-    <row r="16" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="16" ht="20.1" customHeight="1" spans="3:240">
       <c r="C16" s="9">
         <v>10110</v>
       </c>
@@ -3618,7 +3038,7 @@
         <v>40</v>
       </c>
       <c r="H16" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="I16" s="15" t="s">
         <v>36</v>
@@ -3636,11 +3056,11 @@
         <v>1</v>
       </c>
       <c r="N16" s="16">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="IF16"/>
     </row>
-    <row r="17" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="17" ht="20.1" customHeight="1" spans="3:240">
       <c r="C17" s="9">
         <v>10111</v>
       </c>
@@ -3675,11 +3095,11 @@
         <v>1</v>
       </c>
       <c r="N17" s="16">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="IF17"/>
     </row>
-    <row r="18" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="18" ht="20.1" customHeight="1" spans="3:240">
       <c r="C18" s="9">
         <v>10112</v>
       </c>
@@ -3696,7 +3116,7 @@
         <v>50</v>
       </c>
       <c r="H18" s="11">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="I18" s="15" t="s">
         <v>37</v>
@@ -3718,7 +3138,7 @@
       </c>
       <c r="IF18"/>
     </row>
-    <row r="19" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="19" ht="20.1" customHeight="1" spans="3:14">
       <c r="C19" s="9">
         <v>10200</v>
       </c>
@@ -3756,7 +3176,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="20" ht="20.1" customHeight="1" spans="3:14">
       <c r="C20" s="9">
         <v>10201</v>
       </c>
@@ -3794,7 +3214,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="21" ht="20.1" customHeight="1" spans="3:14">
       <c r="C21" s="9">
         <v>10202</v>
       </c>
@@ -3832,7 +3252,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="22" ht="20.1" customHeight="1" spans="3:14">
       <c r="C22" s="9">
         <v>10203</v>
       </c>
@@ -3870,7 +3290,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="23" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="23" ht="20.1" customHeight="1" spans="3:14">
       <c r="C23" s="9">
         <v>10204</v>
       </c>
@@ -3908,7 +3328,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="24" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="24" ht="20.1" customHeight="1" spans="3:14">
       <c r="C24" s="9">
         <v>10205</v>
       </c>
@@ -3946,7 +3366,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="25" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="25" ht="20.1" customHeight="1" spans="3:14">
       <c r="C25" s="9">
         <v>10206</v>
       </c>
@@ -3984,7 +3404,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="26" ht="20.1" customHeight="1" spans="3:14">
       <c r="C26" s="9">
         <v>10207</v>
       </c>
@@ -4022,7 +3442,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="27" ht="20.1" customHeight="1" spans="3:14">
       <c r="C27" s="9">
         <v>10208</v>
       </c>
@@ -4048,7 +3468,7 @@
         <v>31</v>
       </c>
       <c r="K27" s="11">
-        <v>0.17499999999999999</v>
+        <v>0.175</v>
       </c>
       <c r="L27" s="11">
         <v>0</v>
@@ -4060,7 +3480,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="28" ht="20.1" customHeight="1" spans="3:14">
       <c r="C28" s="9">
         <v>10209</v>
       </c>
@@ -4098,7 +3518,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="29" ht="20.1" customHeight="1" spans="3:14">
       <c r="C29" s="9">
         <v>10210</v>
       </c>
@@ -4115,7 +3535,7 @@
         <v>40</v>
       </c>
       <c r="H29" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="I29" s="15" t="s">
         <v>44</v>
@@ -4133,10 +3553,10 @@
         <v>2</v>
       </c>
       <c r="N29" s="16">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="3:240" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="30" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:240">
       <c r="C30" s="12">
         <v>10211</v>
       </c>
@@ -4162,7 +3582,7 @@
         <v>46</v>
       </c>
       <c r="K30" s="11">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="L30" s="14">
         <v>0</v>
@@ -4171,7 +3591,7 @@
         <v>2</v>
       </c>
       <c r="N30" s="16">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="O30" s="19"/>
       <c r="P30" s="19"/>
@@ -4400,7 +3820,7 @@
       <c r="IE30" s="19"/>
       <c r="IF30" s="19"/>
     </row>
-    <row r="31" spans="3:240" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="31" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:240">
       <c r="C31" s="12">
         <v>10212</v>
       </c>
@@ -4417,7 +3837,7 @@
         <v>50</v>
       </c>
       <c r="H31" s="11">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="I31" s="17" t="s">
         <v>45</v>
@@ -4435,7 +3855,7 @@
         <v>2</v>
       </c>
       <c r="N31" s="16">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="O31" s="19"/>
       <c r="P31" s="19"/>
@@ -4664,7 +4084,7 @@
       <c r="IE31" s="19"/>
       <c r="IF31" s="19"/>
     </row>
-    <row r="32" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="32" ht="20.1" customHeight="1" spans="3:14">
       <c r="C32" s="9">
         <v>10300</v>
       </c>
@@ -4702,7 +4122,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="33" ht="20.1" customHeight="1" spans="3:14">
       <c r="C33" s="9">
         <v>10301</v>
       </c>
@@ -4740,7 +4160,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="34" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="34" ht="20.1" customHeight="1" spans="3:14">
       <c r="C34" s="9">
         <v>10302</v>
       </c>
@@ -4778,7 +4198,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="35" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="35" ht="20.1" customHeight="1" spans="3:14">
       <c r="C35" s="9">
         <v>10303</v>
       </c>
@@ -4816,7 +4236,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="36" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="36" ht="20.1" customHeight="1" spans="3:14">
       <c r="C36" s="9">
         <v>10304</v>
       </c>
@@ -4854,7 +4274,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="37" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="37" ht="20.1" customHeight="1" spans="3:14">
       <c r="C37" s="9">
         <v>10305</v>
       </c>
@@ -4892,7 +4312,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="38" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="38" ht="20.1" customHeight="1" spans="3:14">
       <c r="C38" s="9">
         <v>10306</v>
       </c>
@@ -4930,7 +4350,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="39" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="39" ht="20.1" customHeight="1" spans="3:14">
       <c r="C39" s="9">
         <v>10307</v>
       </c>
@@ -4968,7 +4388,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="40" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="40" ht="20.1" customHeight="1" spans="3:14">
       <c r="C40" s="9">
         <v>10308</v>
       </c>
@@ -4994,7 +4414,7 @@
         <v>54</v>
       </c>
       <c r="K40" s="11">
-        <v>0.17499999999999999</v>
+        <v>0.175</v>
       </c>
       <c r="L40" s="11">
         <v>0</v>
@@ -5006,7 +4426,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="41" ht="20.1" customHeight="1" spans="3:14">
       <c r="C41" s="9">
         <v>10309</v>
       </c>
@@ -5044,7 +4464,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="42" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="42" ht="20.1" customHeight="1" spans="3:14">
       <c r="C42" s="9">
         <v>10310</v>
       </c>
@@ -5061,7 +4481,7 @@
         <v>40</v>
       </c>
       <c r="H42" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="I42" s="15" t="s">
         <v>55</v>
@@ -5079,10 +4499,10 @@
         <v>3</v>
       </c>
       <c r="N42" s="16">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="3:240" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="43" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:240">
       <c r="C43" s="12">
         <v>10311</v>
       </c>
@@ -5108,7 +4528,7 @@
         <v>56</v>
       </c>
       <c r="K43" s="11">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="L43" s="14">
         <v>0</v>
@@ -5117,7 +4537,7 @@
         <v>3</v>
       </c>
       <c r="N43" s="16">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="O43" s="19"/>
       <c r="P43" s="19"/>
@@ -5346,7 +4766,7 @@
       <c r="IE43" s="19"/>
       <c r="IF43" s="19"/>
     </row>
-    <row r="44" spans="3:240" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="44" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:240">
       <c r="C44" s="12">
         <v>10312</v>
       </c>
@@ -5363,7 +4783,7 @@
         <v>50</v>
       </c>
       <c r="H44" s="11">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="I44" s="17" t="s">
         <v>44</v>
@@ -5381,7 +4801,7 @@
         <v>3</v>
       </c>
       <c r="N44" s="16">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="O44" s="19"/>
       <c r="P44" s="19"/>
@@ -5610,7 +5030,7 @@
       <c r="IE44" s="19"/>
       <c r="IF44" s="19"/>
     </row>
-    <row r="45" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="45" ht="20.1" customHeight="1" spans="3:14">
       <c r="C45" s="9">
         <v>10400</v>
       </c>
@@ -5648,7 +5068,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="46" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="46" ht="20.1" customHeight="1" spans="3:14">
       <c r="C46" s="9">
         <v>10401</v>
       </c>
@@ -5686,7 +5106,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="47" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="47" ht="20.1" customHeight="1" spans="3:14">
       <c r="C47" s="9">
         <v>10402</v>
       </c>
@@ -5724,7 +5144,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="48" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="48" ht="20.1" customHeight="1" spans="3:14">
       <c r="C48" s="9">
         <v>10403</v>
       </c>
@@ -5762,7 +5182,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="49" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="49" ht="20.1" customHeight="1" spans="3:14">
       <c r="C49" s="9">
         <v>10404</v>
       </c>
@@ -5800,7 +5220,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="50" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="50" ht="20.1" customHeight="1" spans="3:14">
       <c r="C50" s="9">
         <v>10405</v>
       </c>
@@ -5838,7 +5258,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="51" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="51" ht="20.1" customHeight="1" spans="3:14">
       <c r="C51" s="9">
         <v>10406</v>
       </c>
@@ -5876,7 +5296,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="52" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="52" ht="20.1" customHeight="1" spans="3:14">
       <c r="C52" s="9">
         <v>10407</v>
       </c>
@@ -5914,7 +5334,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="53" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="53" ht="20.1" customHeight="1" spans="3:14">
       <c r="C53" s="9">
         <v>10408</v>
       </c>
@@ -5940,7 +5360,7 @@
         <v>54</v>
       </c>
       <c r="K53" s="11">
-        <v>0.17499999999999999</v>
+        <v>0.175</v>
       </c>
       <c r="L53" s="11">
         <v>0</v>
@@ -5952,7 +5372,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="54" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="54" ht="20.1" customHeight="1" spans="3:14">
       <c r="C54" s="9">
         <v>10409</v>
       </c>
@@ -5990,7 +5410,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="55" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="55" ht="20.1" customHeight="1" spans="3:14">
       <c r="C55" s="9">
         <v>10410</v>
       </c>
@@ -6007,7 +5427,7 @@
         <v>40</v>
       </c>
       <c r="H55" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="I55" s="15" t="s">
         <v>58</v>
@@ -6025,10 +5445,10 @@
         <v>4</v>
       </c>
       <c r="N55" s="16">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="3:240" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="56" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:240">
       <c r="C56" s="12">
         <v>10411</v>
       </c>
@@ -6054,7 +5474,7 @@
         <v>56</v>
       </c>
       <c r="K56" s="11">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="L56" s="14">
         <v>0</v>
@@ -6063,7 +5483,7 @@
         <v>4</v>
       </c>
       <c r="N56" s="16">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="O56" s="19"/>
       <c r="P56" s="19"/>
@@ -6292,7 +5712,7 @@
       <c r="IE56" s="19"/>
       <c r="IF56" s="19"/>
     </row>
-    <row r="57" spans="3:240" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="57" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:240">
       <c r="C57" s="12">
         <v>10412</v>
       </c>
@@ -6309,7 +5729,7 @@
         <v>50</v>
       </c>
       <c r="H57" s="11">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="I57" s="17" t="s">
         <v>55</v>
@@ -6327,7 +5747,7 @@
         <v>4</v>
       </c>
       <c r="N57" s="16">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="O57" s="19"/>
       <c r="P57" s="19"/>
@@ -6556,7 +5976,7 @@
       <c r="IE57" s="19"/>
       <c r="IF57" s="19"/>
     </row>
-    <row r="58" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="58" ht="20.1" customHeight="1" spans="3:14">
       <c r="C58" s="9">
         <v>10500</v>
       </c>
@@ -6594,7 +6014,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="59" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="59" ht="20.1" customHeight="1" spans="3:14">
       <c r="C59" s="9">
         <v>10501</v>
       </c>
@@ -6632,7 +6052,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="60" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="60" ht="20.1" customHeight="1" spans="3:14">
       <c r="C60" s="9">
         <v>10502</v>
       </c>
@@ -6670,7 +6090,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="61" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="61" ht="20.1" customHeight="1" spans="3:14">
       <c r="C61" s="9">
         <v>10503</v>
       </c>
@@ -6708,7 +6128,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="62" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="62" ht="20.1" customHeight="1" spans="3:14">
       <c r="C62" s="9">
         <v>10504</v>
       </c>
@@ -6746,7 +6166,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="63" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="63" ht="20.1" customHeight="1" spans="3:14">
       <c r="C63" s="9">
         <v>10505</v>
       </c>
@@ -6784,7 +6204,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="64" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="64" ht="20.1" customHeight="1" spans="3:14">
       <c r="C64" s="9">
         <v>10506</v>
       </c>
@@ -6822,7 +6242,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="65" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="65" ht="20.1" customHeight="1" spans="3:14">
       <c r="C65" s="9">
         <v>10507</v>
       </c>
@@ -6860,7 +6280,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="66" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="66" ht="20.1" customHeight="1" spans="3:14">
       <c r="C66" s="9">
         <v>10508</v>
       </c>
@@ -6886,7 +6306,7 @@
         <v>66</v>
       </c>
       <c r="K66" s="11">
-        <v>0.17499999999999999</v>
+        <v>0.175</v>
       </c>
       <c r="L66" s="11">
         <v>0</v>
@@ -6898,7 +6318,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="67" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="67" ht="20.1" customHeight="1" spans="3:14">
       <c r="C67" s="9">
         <v>10509</v>
       </c>
@@ -6936,7 +6356,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="68" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="68" ht="20.1" customHeight="1" spans="3:14">
       <c r="C68" s="9">
         <v>10510</v>
       </c>
@@ -6953,7 +6373,7 @@
         <v>40</v>
       </c>
       <c r="H68" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="I68" s="15" t="s">
         <v>68</v>
@@ -6971,10 +6391,10 @@
         <v>5</v>
       </c>
       <c r="N68" s="16">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="3:240" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="69" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:240">
       <c r="C69" s="12">
         <v>10511</v>
       </c>
@@ -7000,7 +6420,7 @@
         <v>28</v>
       </c>
       <c r="K69" s="11">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="L69" s="14">
         <v>0</v>
@@ -7009,7 +6429,7 @@
         <v>5</v>
       </c>
       <c r="N69" s="16">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="O69" s="19"/>
       <c r="P69" s="19"/>
@@ -7238,7 +6658,7 @@
       <c r="IE69" s="19"/>
       <c r="IF69" s="19"/>
     </row>
-    <row r="70" spans="3:240" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="70" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:240">
       <c r="C70" s="12">
         <v>10512</v>
       </c>
@@ -7255,7 +6675,7 @@
         <v>50</v>
       </c>
       <c r="H70" s="11">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="I70" s="17" t="s">
         <v>45</v>
@@ -7273,7 +6693,7 @@
         <v>5</v>
       </c>
       <c r="N70" s="16">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="O70" s="19"/>
       <c r="P70" s="19"/>
@@ -7502,7 +6922,7 @@
       <c r="IE70" s="19"/>
       <c r="IF70" s="19"/>
     </row>
-    <row r="71" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="71" ht="20.1" customHeight="1" spans="3:14">
       <c r="C71" s="9">
         <v>10600</v>
       </c>
@@ -7540,7 +6960,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="72" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="72" ht="20.1" customHeight="1" spans="3:14">
       <c r="C72" s="9">
         <v>10601</v>
       </c>
@@ -7578,7 +6998,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="73" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="73" ht="20.1" customHeight="1" spans="3:14">
       <c r="C73" s="9">
         <v>10602</v>
       </c>
@@ -7616,7 +7036,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="74" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="74" ht="20.1" customHeight="1" spans="3:14">
       <c r="C74" s="9">
         <v>10603</v>
       </c>
@@ -7654,7 +7074,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="75" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="75" ht="20.1" customHeight="1" spans="3:14">
       <c r="C75" s="9">
         <v>10604</v>
       </c>
@@ -7692,7 +7112,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="76" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="76" ht="20.1" customHeight="1" spans="3:14">
       <c r="C76" s="9">
         <v>10605</v>
       </c>
@@ -7730,7 +7150,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="77" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="77" ht="20.1" customHeight="1" spans="3:14">
       <c r="C77" s="9">
         <v>10606</v>
       </c>
@@ -7768,7 +7188,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="78" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="78" ht="20.1" customHeight="1" spans="3:14">
       <c r="C78" s="9">
         <v>10607</v>
       </c>
@@ -7806,7 +7226,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="79" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="79" ht="20.1" customHeight="1" spans="3:14">
       <c r="C79" s="9">
         <v>10608</v>
       </c>
@@ -7832,7 +7252,7 @@
         <v>66</v>
       </c>
       <c r="K79" s="11">
-        <v>0.17499999999999999</v>
+        <v>0.175</v>
       </c>
       <c r="L79" s="11">
         <v>0</v>
@@ -7844,7 +7264,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="80" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="80" ht="20.1" customHeight="1" spans="3:14">
       <c r="C80" s="9">
         <v>10609</v>
       </c>
@@ -7882,7 +7302,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="81" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="81" ht="20.1" customHeight="1" spans="3:14">
       <c r="C81" s="9">
         <v>10610</v>
       </c>
@@ -7899,7 +7319,7 @@
         <v>40</v>
       </c>
       <c r="H81" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="I81" s="15" t="s">
         <v>68</v>
@@ -7917,10 +7337,10 @@
         <v>5</v>
       </c>
       <c r="N81" s="16">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:240" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="82" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:240">
       <c r="C82" s="9">
         <v>10611</v>
       </c>
@@ -7946,7 +7366,7 @@
         <v>28</v>
       </c>
       <c r="K82" s="11">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="L82" s="14">
         <v>0</v>
@@ -7955,7 +7375,7 @@
         <v>5</v>
       </c>
       <c r="N82" s="16">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="O82" s="19"/>
       <c r="P82" s="19"/>
@@ -8184,7 +7604,7 @@
       <c r="IE82" s="19"/>
       <c r="IF82" s="19"/>
     </row>
-    <row r="83" spans="3:240" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="83" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:240">
       <c r="C83" s="9">
         <v>10612</v>
       </c>
@@ -8201,7 +7621,7 @@
         <v>50</v>
       </c>
       <c r="H83" s="11">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="I83" s="17" t="s">
         <v>45</v>
@@ -8219,7 +7639,7 @@
         <v>5</v>
       </c>
       <c r="N83" s="16">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="O83" s="19"/>
       <c r="P83" s="19"/>
@@ -8448,7 +7868,7 @@
       <c r="IE83" s="19"/>
       <c r="IF83" s="19"/>
     </row>
-    <row r="84" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="84" ht="20.1" customHeight="1" spans="3:14">
       <c r="C84" s="9">
         <v>10700</v>
       </c>
@@ -8486,7 +7906,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="85" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="85" ht="20.1" customHeight="1" spans="3:14">
       <c r="C85" s="9">
         <v>10701</v>
       </c>
@@ -8524,7 +7944,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="86" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="86" ht="20.1" customHeight="1" spans="3:14">
       <c r="C86" s="9">
         <v>10702</v>
       </c>
@@ -8562,7 +7982,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="87" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="87" ht="20.1" customHeight="1" spans="3:14">
       <c r="C87" s="9">
         <v>10703</v>
       </c>
@@ -8600,7 +8020,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="88" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="88" ht="20.1" customHeight="1" spans="3:14">
       <c r="C88" s="9">
         <v>10704</v>
       </c>
@@ -8638,7 +8058,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="89" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="89" ht="20.1" customHeight="1" spans="3:14">
       <c r="C89" s="9">
         <v>10705</v>
       </c>
@@ -8676,7 +8096,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="90" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="90" ht="20.1" customHeight="1" spans="3:14">
       <c r="C90" s="9">
         <v>10706</v>
       </c>
@@ -8714,7 +8134,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="91" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="91" ht="20.1" customHeight="1" spans="3:14">
       <c r="C91" s="9">
         <v>10707</v>
       </c>
@@ -8752,7 +8172,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="92" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="92" ht="20.1" customHeight="1" spans="3:14">
       <c r="C92" s="9">
         <v>10708</v>
       </c>
@@ -8778,7 +8198,7 @@
         <v>66</v>
       </c>
       <c r="K92" s="11">
-        <v>0.17499999999999999</v>
+        <v>0.175</v>
       </c>
       <c r="L92" s="11">
         <v>0</v>
@@ -8790,7 +8210,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="93" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="93" ht="20.1" customHeight="1" spans="3:14">
       <c r="C93" s="9">
         <v>10709</v>
       </c>
@@ -8828,7 +8248,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="94" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="94" ht="20.1" customHeight="1" spans="3:14">
       <c r="C94" s="9">
         <v>10710</v>
       </c>
@@ -8845,7 +8265,7 @@
         <v>40</v>
       </c>
       <c r="H94" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="I94" s="15" t="s">
         <v>68</v>
@@ -8863,10 +8283,10 @@
         <v>5</v>
       </c>
       <c r="N94" s="16">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:240" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="95" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:240">
       <c r="C95" s="12">
         <v>10711</v>
       </c>
@@ -8892,7 +8312,7 @@
         <v>28</v>
       </c>
       <c r="K95" s="11">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="L95" s="14">
         <v>0</v>
@@ -8901,7 +8321,7 @@
         <v>5</v>
       </c>
       <c r="N95" s="16">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="O95" s="19"/>
       <c r="P95" s="19"/>
@@ -9130,7 +8550,7 @@
       <c r="IE95" s="19"/>
       <c r="IF95" s="19"/>
     </row>
-    <row r="96" spans="3:240" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="96" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:240">
       <c r="C96" s="12">
         <v>10712</v>
       </c>
@@ -9147,7 +8567,7 @@
         <v>50</v>
       </c>
       <c r="H96" s="11">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="I96" s="17" t="s">
         <v>45</v>
@@ -9165,7 +8585,7 @@
         <v>5</v>
       </c>
       <c r="N96" s="16">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="O96" s="19"/>
       <c r="P96" s="19"/>
@@ -9394,7 +8814,7 @@
       <c r="IE96" s="19"/>
       <c r="IF96" s="19"/>
     </row>
-    <row r="97" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="97" ht="20.1" customHeight="1" spans="3:14">
       <c r="C97" s="9">
         <v>10800</v>
       </c>
@@ -9432,7 +8852,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="98" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="98" ht="20.1" customHeight="1" spans="3:14">
       <c r="C98" s="9">
         <v>10801</v>
       </c>
@@ -9470,7 +8890,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="99" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="99" ht="20.1" customHeight="1" spans="3:14">
       <c r="C99" s="9">
         <v>10802</v>
       </c>
@@ -9508,7 +8928,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="100" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="100" ht="20.1" customHeight="1" spans="3:14">
       <c r="C100" s="9">
         <v>10803</v>
       </c>
@@ -9546,7 +8966,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="101" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="101" ht="20.1" customHeight="1" spans="3:14">
       <c r="C101" s="9">
         <v>10804</v>
       </c>
@@ -9584,7 +9004,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="102" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="102" ht="20.1" customHeight="1" spans="3:14">
       <c r="C102" s="9">
         <v>10805</v>
       </c>
@@ -9622,7 +9042,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="103" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="103" ht="20.1" customHeight="1" spans="3:14">
       <c r="C103" s="9">
         <v>10806</v>
       </c>
@@ -9660,7 +9080,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="104" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="104" ht="20.1" customHeight="1" spans="3:14">
       <c r="C104" s="9">
         <v>10807</v>
       </c>
@@ -9698,7 +9118,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="105" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="105" ht="20.1" customHeight="1" spans="3:14">
       <c r="C105" s="9">
         <v>10808</v>
       </c>
@@ -9724,7 +9144,7 @@
         <v>69</v>
       </c>
       <c r="K105" s="11">
-        <v>0.17499999999999999</v>
+        <v>0.175</v>
       </c>
       <c r="L105" s="11">
         <v>0</v>
@@ -9736,7 +9156,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="106" spans="3:240" ht="19.5" customHeight="1">
+    <row r="106" ht="19.5" customHeight="1" spans="3:14">
       <c r="C106" s="9">
         <v>10809</v>
       </c>
@@ -9774,7 +9194,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="107" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="107" ht="20.1" customHeight="1" spans="3:14">
       <c r="C107" s="9">
         <v>10810</v>
       </c>
@@ -9791,7 +9211,7 @@
         <v>40</v>
       </c>
       <c r="H107" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="I107" s="15" t="s">
         <v>72</v>
@@ -9809,10 +9229,10 @@
         <v>6</v>
       </c>
       <c r="N107" s="16">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="108" spans="3:240" s="3" customFormat="1" ht="19.5" customHeight="1">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="108" s="3" customFormat="1" ht="19.5" customHeight="1" spans="3:240">
       <c r="C108" s="9">
         <v>10811</v>
       </c>
@@ -9838,7 +9258,7 @@
         <v>32</v>
       </c>
       <c r="K108" s="11">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="L108" s="14">
         <v>0</v>
@@ -9847,7 +9267,7 @@
         <v>6</v>
       </c>
       <c r="N108" s="16">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="O108" s="19"/>
       <c r="P108" s="19"/>
@@ -10076,7 +9496,7 @@
       <c r="IE108" s="19"/>
       <c r="IF108" s="19"/>
     </row>
-    <row r="109" spans="3:240" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="109" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:240">
       <c r="C109" s="9">
         <v>10812</v>
       </c>
@@ -10093,7 +9513,7 @@
         <v>50</v>
       </c>
       <c r="H109" s="11">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="I109" s="17" t="s">
         <v>58</v>
@@ -10111,7 +9531,7 @@
         <v>6</v>
       </c>
       <c r="N109" s="16">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="O109" s="19"/>
       <c r="P109" s="19"/>
@@ -10340,7 +9760,7 @@
       <c r="IE109" s="19"/>
       <c r="IF109" s="19"/>
     </row>
-    <row r="110" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="110" ht="20.1" customHeight="1" spans="3:14">
       <c r="C110" s="9">
         <v>10900</v>
       </c>
@@ -10378,7 +9798,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="111" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="111" ht="20.1" customHeight="1" spans="3:14">
       <c r="C111" s="9">
         <v>10901</v>
       </c>
@@ -10416,7 +9836,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="112" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="112" ht="20.1" customHeight="1" spans="3:14">
       <c r="C112" s="9">
         <v>10902</v>
       </c>
@@ -10454,7 +9874,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="113" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="113" ht="20.1" customHeight="1" spans="3:14">
       <c r="C113" s="9">
         <v>10903</v>
       </c>
@@ -10492,7 +9912,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="114" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="114" ht="20.1" customHeight="1" spans="3:14">
       <c r="C114" s="9">
         <v>10904</v>
       </c>
@@ -10530,7 +9950,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="115" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="115" ht="20.1" customHeight="1" spans="3:14">
       <c r="C115" s="9">
         <v>10905</v>
       </c>
@@ -10568,7 +9988,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="116" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="116" ht="20.1" customHeight="1" spans="3:14">
       <c r="C116" s="9">
         <v>10906</v>
       </c>
@@ -10606,7 +10026,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="117" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="117" ht="20.1" customHeight="1" spans="3:14">
       <c r="C117" s="9">
         <v>10907</v>
       </c>
@@ -10644,7 +10064,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="118" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="118" ht="20.1" customHeight="1" spans="3:14">
       <c r="C118" s="9">
         <v>10908</v>
       </c>
@@ -10670,7 +10090,7 @@
         <v>69</v>
       </c>
       <c r="K118" s="11">
-        <v>0.17499999999999999</v>
+        <v>0.175</v>
       </c>
       <c r="L118" s="11">
         <v>0</v>
@@ -10682,7 +10102,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="119" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="119" ht="20.1" customHeight="1" spans="3:14">
       <c r="C119" s="9">
         <v>10909</v>
       </c>
@@ -10720,7 +10140,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="120" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="120" ht="20.1" customHeight="1" spans="3:14">
       <c r="C120" s="9">
         <v>10910</v>
       </c>
@@ -10737,7 +10157,7 @@
         <v>40</v>
       </c>
       <c r="H120" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="I120" s="15" t="s">
         <v>74</v>
@@ -10755,10 +10175,10 @@
         <v>7</v>
       </c>
       <c r="N120" s="16">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="121" spans="3:240" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="121" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:240">
       <c r="C121" s="12">
         <v>10911</v>
       </c>
@@ -10784,7 +10204,7 @@
         <v>32</v>
       </c>
       <c r="K121" s="11">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="L121" s="14">
         <v>0</v>
@@ -10793,7 +10213,7 @@
         <v>7</v>
       </c>
       <c r="N121" s="16">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="O121" s="19"/>
       <c r="P121" s="19"/>
@@ -11022,7 +10442,7 @@
       <c r="IE121" s="19"/>
       <c r="IF121" s="19"/>
     </row>
-    <row r="122" spans="3:240" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="122" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:240">
       <c r="C122" s="12">
         <v>10912</v>
       </c>
@@ -11039,7 +10459,7 @@
         <v>50</v>
       </c>
       <c r="H122" s="11">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="I122" s="17" t="s">
         <v>58</v>
@@ -11057,7 +10477,7 @@
         <v>7</v>
       </c>
       <c r="N122" s="16">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="O122" s="19"/>
       <c r="P122" s="19"/>
@@ -11286,7 +10706,7 @@
       <c r="IE122" s="19"/>
       <c r="IF122" s="19"/>
     </row>
-    <row r="123" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="123" ht="20.1" customHeight="1" spans="3:14">
       <c r="C123" s="9">
         <v>11000</v>
       </c>
@@ -11324,7 +10744,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="124" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="124" ht="20.1" customHeight="1" spans="3:14">
       <c r="C124" s="9">
         <v>11001</v>
       </c>
@@ -11362,7 +10782,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="125" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="125" ht="20.1" customHeight="1" spans="3:14">
       <c r="C125" s="9">
         <v>11002</v>
       </c>
@@ -11400,7 +10820,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="126" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="126" ht="20.1" customHeight="1" spans="3:14">
       <c r="C126" s="9">
         <v>11003</v>
       </c>
@@ -11438,7 +10858,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="127" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="127" ht="20.1" customHeight="1" spans="3:14">
       <c r="C127" s="9">
         <v>11004</v>
       </c>
@@ -11476,7 +10896,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="128" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="128" ht="20.1" customHeight="1" spans="3:14">
       <c r="C128" s="9">
         <v>11005</v>
       </c>
@@ -11514,7 +10934,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="129" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="129" ht="20.1" customHeight="1" spans="3:14">
       <c r="C129" s="9">
         <v>11006</v>
       </c>
@@ -11552,7 +10972,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="130" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="130" ht="20.1" customHeight="1" spans="3:14">
       <c r="C130" s="9">
         <v>11007</v>
       </c>
@@ -11590,7 +11010,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="131" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="131" ht="20.1" customHeight="1" spans="3:14">
       <c r="C131" s="9">
         <v>11008</v>
       </c>
@@ -11616,7 +11036,7 @@
         <v>69</v>
       </c>
       <c r="K131" s="11">
-        <v>0.17499999999999999</v>
+        <v>0.175</v>
       </c>
       <c r="L131" s="11">
         <v>0</v>
@@ -11628,7 +11048,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="132" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="132" ht="20.1" customHeight="1" spans="3:14">
       <c r="C132" s="9">
         <v>11009</v>
       </c>
@@ -11666,7 +11086,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="133" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="133" ht="20.1" customHeight="1" spans="3:14">
       <c r="C133" s="9">
         <v>11010</v>
       </c>
@@ -11683,7 +11103,7 @@
         <v>40</v>
       </c>
       <c r="H133" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="I133" s="15" t="s">
         <v>72</v>
@@ -11701,10 +11121,10 @@
         <v>8</v>
       </c>
       <c r="N133" s="16">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="134" spans="3:240" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="134" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:240">
       <c r="C134" s="12">
         <v>11011</v>
       </c>
@@ -11730,7 +11150,7 @@
         <v>32</v>
       </c>
       <c r="K134" s="11">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="L134" s="14">
         <v>0</v>
@@ -11739,7 +11159,7 @@
         <v>8</v>
       </c>
       <c r="N134" s="16">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="O134" s="19"/>
       <c r="P134" s="19"/>
@@ -11968,7 +11388,7 @@
       <c r="IE134" s="19"/>
       <c r="IF134" s="19"/>
     </row>
-    <row r="135" spans="3:240" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="135" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:240">
       <c r="C135" s="12">
         <v>11012</v>
       </c>
@@ -11985,7 +11405,7 @@
         <v>50</v>
       </c>
       <c r="H135" s="11">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="I135" s="17" t="s">
         <v>58</v>
@@ -12003,7 +11423,7 @@
         <v>8</v>
       </c>
       <c r="N135" s="16">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="O135" s="19"/>
       <c r="P135" s="19"/>
@@ -12232,7 +11652,7 @@
       <c r="IE135" s="19"/>
       <c r="IF135" s="19"/>
     </row>
-    <row r="136" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="136" ht="20.1" customHeight="1" spans="3:14">
       <c r="C136" s="9">
         <v>11100</v>
       </c>
@@ -12270,7 +11690,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="137" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="137" ht="20.1" customHeight="1" spans="3:14">
       <c r="C137" s="9">
         <v>11101</v>
       </c>
@@ -12308,7 +11728,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="138" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="138" ht="20.1" customHeight="1" spans="3:14">
       <c r="C138" s="9">
         <v>11102</v>
       </c>
@@ -12346,7 +11766,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="139" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="139" ht="20.1" customHeight="1" spans="3:14">
       <c r="C139" s="9">
         <v>11103</v>
       </c>
@@ -12384,7 +11804,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="140" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="140" ht="20.1" customHeight="1" spans="3:14">
       <c r="C140" s="9">
         <v>11104</v>
       </c>
@@ -12422,7 +11842,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="141" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="141" ht="20.1" customHeight="1" spans="3:14">
       <c r="C141" s="9">
         <v>11105</v>
       </c>
@@ -12460,7 +11880,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="142" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="142" ht="20.1" customHeight="1" spans="3:14">
       <c r="C142" s="9">
         <v>11106</v>
       </c>
@@ -12498,7 +11918,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="143" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="143" ht="20.1" customHeight="1" spans="3:14">
       <c r="C143" s="9">
         <v>11107</v>
       </c>
@@ -12536,7 +11956,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="144" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="144" ht="20.1" customHeight="1" spans="3:14">
       <c r="C144" s="9">
         <v>11108</v>
       </c>
@@ -12562,7 +11982,7 @@
         <v>69</v>
       </c>
       <c r="K144" s="11">
-        <v>0.17499999999999999</v>
+        <v>0.175</v>
       </c>
       <c r="L144" s="11">
         <v>0</v>
@@ -12574,7 +11994,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="145" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="145" ht="20.1" customHeight="1" spans="3:14">
       <c r="C145" s="9">
         <v>11109</v>
       </c>
@@ -12612,7 +12032,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="146" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="146" ht="20.1" customHeight="1" spans="3:14">
       <c r="C146" s="9">
         <v>11110</v>
       </c>
@@ -12629,7 +12049,7 @@
         <v>40</v>
       </c>
       <c r="H146" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="I146" s="15" t="s">
         <v>77</v>
@@ -12647,10 +12067,10 @@
         <v>9</v>
       </c>
       <c r="N146" s="16">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="147" spans="3:240" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="147" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:240">
       <c r="C147" s="12">
         <v>11111</v>
       </c>
@@ -12676,7 +12096,7 @@
         <v>32</v>
       </c>
       <c r="K147" s="11">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="L147" s="14">
         <v>0</v>
@@ -12685,7 +12105,7 @@
         <v>9</v>
       </c>
       <c r="N147" s="16">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="O147" s="19"/>
       <c r="P147" s="19"/>
@@ -12914,7 +12334,7 @@
       <c r="IE147" s="19"/>
       <c r="IF147" s="19"/>
     </row>
-    <row r="148" spans="3:240" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="148" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:240">
       <c r="C148" s="12">
         <v>11112</v>
       </c>
@@ -12931,7 +12351,7 @@
         <v>50</v>
       </c>
       <c r="H148" s="11">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="I148" s="17" t="s">
         <v>58</v>
@@ -12949,7 +12369,7 @@
         <v>9</v>
       </c>
       <c r="N148" s="16">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="O148" s="19"/>
       <c r="P148" s="19"/>
@@ -13178,7 +12598,7 @@
       <c r="IE148" s="19"/>
       <c r="IF148" s="19"/>
     </row>
-    <row r="149" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="149" ht="20.1" customHeight="1" spans="3:14">
       <c r="C149" s="9">
         <v>11200</v>
       </c>
@@ -13216,7 +12636,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="150" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="150" ht="20.1" customHeight="1" spans="3:14">
       <c r="C150" s="9">
         <v>11201</v>
       </c>
@@ -13254,7 +12674,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="151" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="151" ht="20.1" customHeight="1" spans="3:14">
       <c r="C151" s="9">
         <v>11202</v>
       </c>
@@ -13292,7 +12712,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="152" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="152" ht="20.1" customHeight="1" spans="3:14">
       <c r="C152" s="9">
         <v>11203</v>
       </c>
@@ -13330,7 +12750,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="153" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="153" ht="20.1" customHeight="1" spans="3:14">
       <c r="C153" s="9">
         <v>11204</v>
       </c>
@@ -13368,7 +12788,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="154" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="154" ht="20.1" customHeight="1" spans="3:14">
       <c r="C154" s="9">
         <v>11205</v>
       </c>
@@ -13406,7 +12826,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="155" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="155" ht="20.1" customHeight="1" spans="3:14">
       <c r="C155" s="9">
         <v>11206</v>
       </c>
@@ -13444,7 +12864,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="156" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="156" ht="20.1" customHeight="1" spans="3:14">
       <c r="C156" s="9">
         <v>11207</v>
       </c>
@@ -13482,7 +12902,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="157" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="157" ht="20.1" customHeight="1" spans="3:14">
       <c r="C157" s="9">
         <v>11208</v>
       </c>
@@ -13508,7 +12928,7 @@
         <v>69</v>
       </c>
       <c r="K157" s="11">
-        <v>0.17499999999999999</v>
+        <v>0.175</v>
       </c>
       <c r="L157" s="11">
         <v>0</v>
@@ -13520,7 +12940,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="158" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="158" ht="20.1" customHeight="1" spans="3:14">
       <c r="C158" s="9">
         <v>11209</v>
       </c>
@@ -13558,7 +12978,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="159" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="159" ht="20.1" customHeight="1" spans="3:14">
       <c r="C159" s="9">
         <v>11210</v>
       </c>
@@ -13575,7 +12995,7 @@
         <v>40</v>
       </c>
       <c r="H159" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="I159" s="15" t="s">
         <v>74</v>
@@ -13593,10 +13013,10 @@
         <v>10</v>
       </c>
       <c r="N159" s="16">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="160" spans="3:240" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="160" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:240">
       <c r="C160" s="12">
         <v>11211</v>
       </c>
@@ -13622,7 +13042,7 @@
         <v>32</v>
       </c>
       <c r="K160" s="11">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="L160" s="14">
         <v>0</v>
@@ -13631,7 +13051,7 @@
         <v>10</v>
       </c>
       <c r="N160" s="16">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="O160" s="19"/>
       <c r="P160" s="19"/>
@@ -13860,7 +13280,7 @@
       <c r="IE160" s="19"/>
       <c r="IF160" s="19"/>
     </row>
-    <row r="161" spans="3:240" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="161" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:240">
       <c r="C161" s="12">
         <v>11212</v>
       </c>
@@ -13877,7 +13297,7 @@
         <v>50</v>
       </c>
       <c r="H161" s="11">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="I161" s="17" t="s">
         <v>58</v>
@@ -13895,7 +13315,7 @@
         <v>10</v>
       </c>
       <c r="N161" s="16">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="O161" s="19"/>
       <c r="P161" s="19"/>
@@ -14124,7 +13544,7 @@
       <c r="IE161" s="19"/>
       <c r="IF161" s="19"/>
     </row>
-    <row r="162" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="162" ht="20.1" customHeight="1" spans="3:14">
       <c r="C162" s="9">
         <v>11300</v>
       </c>
@@ -14162,7 +13582,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="163" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="163" ht="20.1" customHeight="1" spans="3:14">
       <c r="C163" s="9">
         <v>11301</v>
       </c>
@@ -14200,7 +13620,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="164" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="164" ht="20.1" customHeight="1" spans="3:14">
       <c r="C164" s="9">
         <v>11302</v>
       </c>
@@ -14238,7 +13658,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="165" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="165" ht="20.1" customHeight="1" spans="3:14">
       <c r="C165" s="9">
         <v>11303</v>
       </c>
@@ -14276,7 +13696,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="166" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="166" ht="20.1" customHeight="1" spans="3:14">
       <c r="C166" s="9">
         <v>11304</v>
       </c>
@@ -14314,7 +13734,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="167" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="167" ht="20.1" customHeight="1" spans="3:14">
       <c r="C167" s="9">
         <v>11305</v>
       </c>
@@ -14352,7 +13772,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="168" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="168" ht="20.1" customHeight="1" spans="3:14">
       <c r="C168" s="9">
         <v>11306</v>
       </c>
@@ -14390,7 +13810,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="169" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="169" ht="20.1" customHeight="1" spans="3:14">
       <c r="C169" s="9">
         <v>11307</v>
       </c>
@@ -14428,7 +13848,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="170" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="170" ht="20.1" customHeight="1" spans="3:14">
       <c r="C170" s="9">
         <v>11308</v>
       </c>
@@ -14454,7 +13874,7 @@
         <v>54</v>
       </c>
       <c r="K170" s="11">
-        <v>0.17499999999999999</v>
+        <v>0.175</v>
       </c>
       <c r="L170" s="11">
         <v>0</v>
@@ -14466,7 +13886,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="171" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="171" ht="20.1" customHeight="1" spans="3:14">
       <c r="C171" s="9">
         <v>11309</v>
       </c>
@@ -14504,7 +13924,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="172" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="172" ht="20.1" customHeight="1" spans="3:14">
       <c r="C172" s="9">
         <v>11310</v>
       </c>
@@ -14521,7 +13941,7 @@
         <v>40</v>
       </c>
       <c r="H172" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="I172" s="15" t="s">
         <v>74</v>
@@ -14539,10 +13959,10 @@
         <v>11</v>
       </c>
       <c r="N172" s="16">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="173" spans="3:240" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="173" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:240">
       <c r="C173" s="12">
         <v>11311</v>
       </c>
@@ -14568,7 +13988,7 @@
         <v>33</v>
       </c>
       <c r="K173" s="11">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="L173" s="14">
         <v>0</v>
@@ -14577,7 +13997,7 @@
         <v>11</v>
       </c>
       <c r="N173" s="16">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="O173" s="19"/>
       <c r="P173" s="19"/>
@@ -14806,7 +14226,7 @@
       <c r="IE173" s="19"/>
       <c r="IF173" s="19"/>
     </row>
-    <row r="174" spans="3:240" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="174" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:240">
       <c r="C174" s="12">
         <v>11312</v>
       </c>
@@ -14823,7 +14243,7 @@
         <v>50</v>
       </c>
       <c r="H174" s="11">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="I174" s="17" t="s">
         <v>58</v>
@@ -14841,7 +14261,7 @@
         <v>11</v>
       </c>
       <c r="N174" s="16">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="O174" s="19"/>
       <c r="P174" s="19"/>
@@ -15071,12 +14491,11 @@
       <c r="IF174" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>